--- a/GPR1/Data/F4-Federkonstante.xlsx
+++ b/GPR1/Data/F4-Federkonstante.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,10 +448,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Masse 1 [g]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Auslenkung 1 [cm]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Massen n</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Masse [g] Unsicherheit: 0.005g</t>
         </is>
@@ -462,15 +472,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>11.15</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>49.995</v>
       </c>
     </row>
@@ -479,15 +495,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D3" t="n">
         <v>350</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>12.3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>50.261</v>
       </c>
     </row>
@@ -496,15 +518,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="D4" t="n">
         <v>300</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>13.35</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>50.656</v>
       </c>
     </row>
@@ -513,15 +541,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>150</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D5" t="n">
         <v>250</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>14.45</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>50.418</v>
       </c>
     </row>
@@ -533,12 +567,18 @@
         <v>200</v>
       </c>
       <c r="C6" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" t="n">
         <v>15.5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>49.97</v>
       </c>
     </row>
@@ -547,15 +587,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>250</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="D7" t="n">
         <v>150</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>16.65</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>49.93</v>
       </c>
     </row>
@@ -564,15 +610,21 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>300</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="D8" t="n">
         <v>100</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>17.45</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>50.21</v>
       </c>
     </row>
@@ -581,15 +633,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>350</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D9" t="n">
         <v>50</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>18.75</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>8</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>50.824</v>
       </c>
     </row>
@@ -598,13 +656,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>400</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>19.8</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
